--- a/SampleFiles/test.xlsx
+++ b/SampleFiles/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="39">
   <si>
     <t xml:space="preserve">name </t>
   </si>
@@ -127,6 +127,12 @@
   </si>
   <si>
     <t>FilePath</t>
+  </si>
+  <si>
+    <t>C:\temp\File.pdf</t>
+  </si>
+  <si>
+    <t>C:\temp\Filed.pdf</t>
   </si>
 </sst>
 </file>
@@ -468,10 +474,13 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -521,6 +530,9 @@
       <c r="G2" t="s">
         <v>7</v>
       </c>
+      <c r="H2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -544,6 +556,9 @@
       <c r="G3" t="s">
         <v>8</v>
       </c>
+      <c r="H3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -567,6 +582,9 @@
       <c r="G4" t="s">
         <v>9</v>
       </c>
+      <c r="H4" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -590,6 +608,9 @@
       <c r="G5" t="s">
         <v>10</v>
       </c>
+      <c r="H5" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -613,6 +634,9 @@
       <c r="G6" t="s">
         <v>11</v>
       </c>
+      <c r="H6" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -636,6 +660,9 @@
       <c r="G7" t="s">
         <v>12</v>
       </c>
+      <c r="H7" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -659,6 +686,9 @@
       <c r="G8" t="s">
         <v>13</v>
       </c>
+      <c r="H8" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -682,6 +712,9 @@
       <c r="G9" t="s">
         <v>14</v>
       </c>
+      <c r="H9" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -705,6 +738,9 @@
       <c r="G10" t="s">
         <v>15</v>
       </c>
+      <c r="H10" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -728,6 +764,9 @@
       <c r="G11" t="s">
         <v>16</v>
       </c>
+      <c r="H11" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -751,6 +790,9 @@
       <c r="G12" t="s">
         <v>17</v>
       </c>
+      <c r="H12" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -774,6 +816,9 @@
       <c r="G13" t="s">
         <v>18</v>
       </c>
+      <c r="H13" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -797,6 +842,9 @@
       <c r="G14" t="s">
         <v>19</v>
       </c>
+      <c r="H14" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -820,6 +868,9 @@
       <c r="G15" t="s">
         <v>20</v>
       </c>
+      <c r="H15" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -843,8 +894,11 @@
       <c r="G16" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -866,8 +920,11 @@
       <c r="G17" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -889,8 +946,11 @@
       <c r="G18" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -912,8 +972,11 @@
       <c r="G19" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -935,8 +998,11 @@
       <c r="G20" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -958,8 +1024,11 @@
       <c r="G21" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -981,8 +1050,11 @@
       <c r="G22" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -1004,8 +1076,11 @@
       <c r="G23" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1027,8 +1102,11 @@
       <c r="G24" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -1050,8 +1128,11 @@
       <c r="G25" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -1073,8 +1154,11 @@
       <c r="G26" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -1096,8 +1180,11 @@
       <c r="G27" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -1119,8 +1206,11 @@
       <c r="G28" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -1142,8 +1232,11 @@
       <c r="G29" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -1164,6 +1257,9 @@
       </c>
       <c r="G30" t="s">
         <v>35</v>
+      </c>
+      <c r="H30" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
